--- a/Doc/Planilla de Requerimientos.xlsx
+++ b/Doc/Planilla de Requerimientos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patricio\Documents\Documentos Lab-Bago\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmorales\Documents\GitHub\Lab_Bago\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65117A50-B5CD-423A-98E1-9B7A36D473A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimiento Inicial" sheetId="1" r:id="rId1"/>
@@ -366,7 +365,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -422,7 +421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -538,11 +537,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -556,9 +629,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -577,6 +647,22 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,11 +877,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -859,13 +945,13 @@
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -879,13 +965,13 @@
       <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -902,10 +988,10 @@
       <c r="D4" t="s">
         <v>71</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -919,13 +1005,13 @@
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -939,13 +1025,13 @@
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -959,13 +1045,13 @@
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -979,13 +1065,13 @@
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -999,13 +1085,13 @@
       <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1019,13 +1105,13 @@
       <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1039,13 +1125,13 @@
       <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1059,13 +1145,13 @@
       <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1073,36 +1159,40 @@
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="24.75" customHeight="1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="15" t="s">
         <v>30</v>
       </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:26" ht="24.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:26" ht="24.75" customHeight="1">
       <c r="A16" s="4" t="s">
@@ -1111,21 +1201,21 @@
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="14.5">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" ht="14.5">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="4"/>
@@ -1135,7 +1225,7 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="14.5">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="4"/>
@@ -1145,7 +1235,7 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="14.5">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="4"/>
@@ -1155,7 +1245,7 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="4"/>
@@ -1165,7 +1255,7 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="4"/>
@@ -1175,184 +1265,184 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="42" spans="1:6" ht="15.75" customHeight="1"/>
@@ -2315,14 +2405,14 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:F40" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F40"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF6E940-5FD6-4FEC-9B68-F2645F560451}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2338,128 +2428,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="43.5">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43.5">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:4" ht="29">
+      <c r="A3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.5">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="43.5">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:4" ht="29">
+      <c r="A5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="43.5">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:4" ht="29">
+      <c r="A6" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="29">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="43.5">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:4" ht="29">
+      <c r="A8" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="43.5">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:4" ht="29">
+      <c r="A9" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>1</v>
       </c>
     </row>
